--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matho\MyDatas\Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83EA370-BCC4-480A-91CF-45764F8A49FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C9C86-0C69-4339-8E5B-1305742FC4ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1593,7 +1593,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1662,11 +1662,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1734,6 +1771,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1746,16 +1786,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -2038,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG183"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
@@ -4921,15 +4963,15 @@
       <c r="B173" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C173" s="23" t="s">
+      <c r="C173" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="24"/>
-      <c r="I173" s="25"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="28"/>
       <c r="J173" s="22"/>
       <c r="K173" s="21"/>
       <c r="L173" s="21"/>
@@ -4942,15 +4984,15 @@
       <c r="B174" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="24"/>
-      <c r="I174" s="25"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="28"/>
       <c r="J174" s="22"/>
       <c r="K174" s="21"/>
       <c r="L174" s="21"/>
@@ -4963,15 +5005,15 @@
       <c r="B175" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C175" s="23" t="s">
+      <c r="C175" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="25"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="28"/>
       <c r="J175" s="22"/>
       <c r="K175" s="21"/>
       <c r="L175" s="21"/>
@@ -5004,15 +5046,15 @@
       <c r="B177" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
-      <c r="H177" s="24"/>
-      <c r="I177" s="25"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="28"/>
       <c r="J177" s="20"/>
       <c r="K177" s="15"/>
       <c r="L177" s="15"/>
@@ -5025,15 +5067,15 @@
       <c r="B178" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="25"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="28"/>
       <c r="J178" s="20"/>
       <c r="K178" s="15"/>
       <c r="L178" s="15"/>
@@ -5046,15 +5088,15 @@
       <c r="B179" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="25"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="28"/>
       <c r="J179" s="20"/>
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
@@ -5087,15 +5129,15 @@
       <c r="B181" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="25"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="28"/>
       <c r="J181" s="15"/>
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
@@ -5108,15 +5150,15 @@
       <c r="B182" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
-      <c r="H182" s="24"/>
-      <c r="I182" s="25"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="28"/>
       <c r="J182" s="15"/>
       <c r="K182" s="15"/>
       <c r="L182" s="15"/>
@@ -5129,15 +5171,15 @@
       <c r="B183" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C183" s="26" t="s">
+      <c r="C183" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="26"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="29"/>
+      <c r="F183" s="29"/>
+      <c r="G183" s="29"/>
+      <c r="H183" s="29"/>
+      <c r="I183" s="29"/>
       <c r="J183" s="15"/>
       <c r="K183" s="15"/>
       <c r="L183" s="15"/>
@@ -5148,15 +5190,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C177:I177"/>
+    <mergeCell ref="C175:I175"/>
+    <mergeCell ref="C174:I174"/>
+    <mergeCell ref="C173:I173"/>
     <mergeCell ref="C181:I181"/>
     <mergeCell ref="C182:I182"/>
     <mergeCell ref="C183:I183"/>
     <mergeCell ref="C179:I179"/>
     <mergeCell ref="C178:I178"/>
-    <mergeCell ref="C177:I177"/>
-    <mergeCell ref="C175:I175"/>
-    <mergeCell ref="C174:I174"/>
-    <mergeCell ref="C173:I173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5168,7 +5210,7 @@
   <dimension ref="A2:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5185,7 +5227,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="30" t="s">
         <v>222</v>
       </c>
@@ -5203,994 +5245,994 @@
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31">
+      <c r="A3" s="24"/>
+      <c r="B3" s="32">
         <v>16</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="32">
         <v>32</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="32">
         <v>64</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="32">
         <v>16</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="32">
         <v>32</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="32">
         <v>64</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="32">
         <v>16</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="32">
         <v>32</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="32">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="33" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="34" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="34" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="34" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="34" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="34" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="34" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="35" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="33" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="34" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="34" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="34" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="34" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="34" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="34" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="35" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="33" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="34" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="34" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="34" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="34" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="34" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="34" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="35" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
     </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
     </row>
     <row r="52" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
     </row>
     <row r="53" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
     </row>
     <row r="54" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
     </row>
     <row r="55" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
     </row>
     <row r="56" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
     </row>
     <row r="57" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
     </row>
     <row r="59" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
     </row>
     <row r="60" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
     </row>
     <row r="62" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
     </row>
     <row r="63" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
     </row>
     <row r="64" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matho\MyDatas\Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C9C86-0C69-4339-8E5B-1305742FC4ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF554698-FFC8-4A63-909A-1FDBC9B40DF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15840" yWindow="4224" windowWidth="29568" windowHeight="17448" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="395">
   <si>
     <t># Model with 3CNN 2(3,3)1(5,5) droupout accurancy 74,9%</t>
   </si>
@@ -613,33 +613,6 @@
     <t xml:space="preserve">                                'TruePositives:': 749939.5625}</t>
   </si>
   <si>
-    <t>Accuracy 0.9568135738372803, Precision 0.9593948125839233, Recall 0.9593948125839233, TruePositives 766446.75</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9250640273094177, Precision 0.9440160393714905,Recall 0.9440160393714905,TruePositives 754158.5</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9588006734848022, Precision 0.9573163390159607, Recall 0.9573163390159607, TruePositives 764784.375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9353528022766113, Precision 0.9585523009300232, Recall 0.9585523009300232, TruePositives 765770.125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9448909163475037, Precision 0.9566795229911804, Recall 0.9566795229911804, TruePositives 764272.75</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9298330545425415, Precision 0.9543638229370117, Recall 0.9543638229370117, TruePositives 762423.4375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.933630645275116, Precision 0.9483425617218018, Recall 0.9483425617218018, TruePositives 757612.5</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9186169505119324, Precision 0.9375388622283936, Recall 0.9375388622283936, TruePositives 748982.9375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9234302043914795, Precision 0.9296959638595581, Recall 0.9296959638595581, TruePositives 742717.9375</t>
-  </si>
-  <si>
     <t>3x3</t>
   </si>
   <si>
@@ -655,33 +628,6 @@
     <t>DGAM</t>
   </si>
   <si>
-    <t>Accuracy: 0.707824707 Precision: 0.70782470703 Recall: 0.70782470703 TruePositives: 2728194.75</t>
-  </si>
-  <si>
-    <t>Accuracy: 0.71252441 Precision: 0.7125244140 Recall: 0.7125244140 TruePositives: 2600915.25</t>
-  </si>
-  <si>
-    <t>Accuracy: 0.73861694 Precision: 0.73861694 Recall: 0.73861694 TruePositives: 24203.0</t>
-  </si>
-  <si>
-    <t>Accuracy: 0.8204346 Precision: 0.8204346 Recall: 0.8204346 TruePositives: 26884.0</t>
-  </si>
-  <si>
-    <t>Accuracy: 0.78674316 Precision: 0.78674316 Recall: 0.78674316 TruePositives: 25780.0</t>
-  </si>
-  <si>
-    <t>Accuracy: 0.8088379 Precision: 0.8088379 Recall: 0.8088379 TruePositives: 26504.0</t>
-  </si>
-  <si>
-    <t>Accuracy: 0.77923584 Precision: 0.77923584 Recall: 0.77923584 TruePositives: 25534.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accuracy: 0.5002136 Precision: 0.5002136 Recall: 0.5002136 TruePositives: 16391.0 </t>
-  </si>
-  <si>
-    <t>Accuracy: 0.7546997 Precision: 0.7546997 Recall: 0.7546997 TruePositives: 24730.0</t>
-  </si>
-  <si>
     <t>PCAM</t>
   </si>
   <si>
@@ -703,624 +649,6 @@
     <t>GaborFilters</t>
   </si>
   <si>
-    <t>Accuracy 0.9568135738372803</t>
-  </si>
-  <si>
-    <t>F1_score 0.9581024046749715</t>
-  </si>
-  <si>
-    <t>FalseNegatives 32437.841796875</t>
-  </si>
-  <si>
-    <t>FalsePositives 32437.841796875</t>
-  </si>
-  <si>
-    <t>Precision 0.9593948125839233</t>
-  </si>
-  <si>
-    <t>Recall 0.9593948125839233</t>
-  </si>
-  <si>
-    <t>Test loss 0.13526080466497514</t>
-  </si>
-  <si>
-    <t>TruePositives 766446.75</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9250640273094177</t>
-  </si>
-  <si>
-    <t>F1_score 0.9344438989756435</t>
-  </si>
-  <si>
-    <t>FalseNegatives 44725.96484375</t>
-  </si>
-  <si>
-    <t>FalsePositives 44725.96484375</t>
-  </si>
-  <si>
-    <t>Precision 0.9440160393714905</t>
-  </si>
-  <si>
-    <t>Recall 0.9440160393714905</t>
-  </si>
-  <si>
-    <t>Test loss 0.3447938100512618</t>
-  </si>
-  <si>
-    <t>TruePositives 754158.5</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9588006734848022</t>
-  </si>
-  <si>
-    <t>F1_score 0.9580578813249786</t>
-  </si>
-  <si>
-    <t>FalseNegatives 34099.89453125</t>
-  </si>
-  <si>
-    <t>FalsePositives 34099.89453125</t>
-  </si>
-  <si>
-    <t>Precision 0.9573163390159607</t>
-  </si>
-  <si>
-    <t>Recall 0.9573163390159607</t>
-  </si>
-  <si>
-    <t>Test loss 0.13968415435639264</t>
-  </si>
-  <si>
-    <t>TruePositives 764784.375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9353528022766113</t>
-  </si>
-  <si>
-    <t>F1_score 0.9468104098194073</t>
-  </si>
-  <si>
-    <t>FalseNegatives 33114.13671875</t>
-  </si>
-  <si>
-    <t>FalsePositives 33114.13671875</t>
-  </si>
-  <si>
-    <t>Precision 0.9585523009300232</t>
-  </si>
-  <si>
-    <t>Recall 0.9585523009300232</t>
-  </si>
-  <si>
-    <t>Test loss 0.25268943549436923</t>
-  </si>
-  <si>
-    <t>TruePositives 765770.125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9298330545425415</t>
-  </si>
-  <si>
-    <t>F1_score 0.9419387030473555</t>
-  </si>
-  <si>
-    <t>FalseNegatives 36460.23828125</t>
-  </si>
-  <si>
-    <t>FalsePositives 36460.23828125</t>
-  </si>
-  <si>
-    <t>Precision 0.9543638229370117</t>
-  </si>
-  <si>
-    <t>Recall 0.9543638229370117</t>
-  </si>
-  <si>
-    <t>Test loss 0.24668537972021537</t>
-  </si>
-  <si>
-    <t>TruePositives 762423.4375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.933630645275116</t>
-  </si>
-  <si>
-    <t>F1_score 0.9409290498971273</t>
-  </si>
-  <si>
-    <t>FalseNegatives 41271.62890625</t>
-  </si>
-  <si>
-    <t>FalsePositives 41271.62890625</t>
-  </si>
-  <si>
-    <t>Precision 0.9483425617218018</t>
-  </si>
-  <si>
-    <t>Recall 0.9483425617218018</t>
-  </si>
-  <si>
-    <t>Test loss 0.2544820706691153</t>
-  </si>
-  <si>
-    <t>TruePositives 757612.5</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9186169505119324</t>
-  </si>
-  <si>
-    <t>F1_score 0.9279814100693597</t>
-  </si>
-  <si>
-    <t>FalseNegatives 49901.1171875</t>
-  </si>
-  <si>
-    <t>FalsePositives 49901.1171875</t>
-  </si>
-  <si>
-    <t>Precision 0.9375388622283936</t>
-  </si>
-  <si>
-    <t>Recall 0.9375388622283936</t>
-  </si>
-  <si>
-    <t>Test loss 0.26223826299937103</t>
-  </si>
-  <si>
-    <t>TruePositives 748982.9375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9234302043914795</t>
-  </si>
-  <si>
-    <t>F1_score 0.9265524412850916</t>
-  </si>
-  <si>
-    <t>FalseNegatives 56165.37890625</t>
-  </si>
-  <si>
-    <t>FalsePositives 56165.37890625</t>
-  </si>
-  <si>
-    <t>Precision 0.9296959638595581</t>
-  </si>
-  <si>
-    <t>Recall 0.9296959638595581</t>
-  </si>
-  <si>
-    <t>Test loss 0.25979713687344214</t>
-  </si>
-  <si>
-    <t>TruePositives 742717.9375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9486885070800781</t>
-  </si>
-  <si>
-    <t>F1_score 0.9549478104003098</t>
-  </si>
-  <si>
-    <t>FalseNegatives 30923.203125</t>
-  </si>
-  <si>
-    <t>FalsePositives 30923.203125</t>
-  </si>
-  <si>
-    <t>Precision 0.9612903594970703</t>
-  </si>
-  <si>
-    <t>Recall 0.9612903594970703</t>
-  </si>
-  <si>
-    <t>Test loss 0.1886223138379226</t>
-  </si>
-  <si>
-    <t>TruePositives 767960.9375</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9476287364959717</t>
-  </si>
-  <si>
-    <t>F1_score 0.9525790227262714</t>
-  </si>
-  <si>
-    <t>FalseNegatives 33890.671875</t>
-  </si>
-  <si>
-    <t>FalsePositives 33890.671875</t>
-  </si>
-  <si>
-    <t>Precision 0.9575814008712769</t>
-  </si>
-  <si>
-    <t>Recall 0.9575814008712769</t>
-  </si>
-  <si>
-    <t>Test loss 0.17085294352833005</t>
-  </si>
-  <si>
-    <t>TruePositives 764993.5625</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9520886540412903</t>
-  </si>
-  <si>
-    <t>F1_score 0.9545290732269952</t>
-  </si>
-  <si>
-    <t>FalseNegatives 34366.44140625</t>
-  </si>
-  <si>
-    <t>FalsePositives 34366.44140625</t>
-  </si>
-  <si>
-    <t>Precision 0.9569821357727051</t>
-  </si>
-  <si>
-    <t>Recall 0.9569821357727051</t>
-  </si>
-  <si>
-    <t>Test loss 0.19689046711499777</t>
-  </si>
-  <si>
-    <t>TruePositives 764516.875</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9355294704437256</t>
-  </si>
-  <si>
-    <t>F1_score 0.9402008857821735</t>
-  </si>
-  <si>
-    <t>FalseNegatives 44004.28125</t>
-  </si>
-  <si>
-    <t>FalsePositives 44004.28125</t>
-  </si>
-  <si>
-    <t>Precision 0.9449192881584167</t>
-  </si>
-  <si>
-    <t>Recall 0.9449192881584167</t>
-  </si>
-  <si>
-    <t>Test loss 0.22367041428902698</t>
-  </si>
-  <si>
-    <t>TruePositives 754880.0625</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9328358173370361</t>
-  </si>
-  <si>
-    <t>F1_score 0.9346068880967687</t>
-  </si>
-  <si>
-    <t>FalseNegatives 50821.11328125</t>
-  </si>
-  <si>
-    <t>FalsePositives 50821.11328125</t>
-  </si>
-  <si>
-    <t>Precision 0.9363847970962524</t>
-  </si>
-  <si>
-    <t>Recall 0.9363847970962524</t>
-  </si>
-  <si>
-    <t>Test loss 0.216127967521437</t>
-  </si>
-  <si>
-    <t>TruePositives 748062.8125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.930760383605957</t>
-  </si>
-  <si>
-    <t>F1_score 0.9286588272399111</t>
-  </si>
-  <si>
-    <t>FalseNegatives 58664.921875</t>
-  </si>
-  <si>
-    <t>FalsePositives 58664.921875</t>
-  </si>
-  <si>
-    <t>Precision 0.9265668392181396</t>
-  </si>
-  <si>
-    <t>Recall 0.9265668392181396</t>
-  </si>
-  <si>
-    <t>Test loss 0.23605715499018404</t>
-  </si>
-  <si>
-    <t>TruePositives 740219.8125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9344696402549744</t>
-  </si>
-  <si>
-    <t>F1_score 0.9419357359371705</t>
-  </si>
-  <si>
-    <t>FalseNegatives 40327.8203125</t>
-  </si>
-  <si>
-    <t>FalsePositives 40327.8203125</t>
-  </si>
-  <si>
-    <t>Precision 0.9495221972465515</t>
-  </si>
-  <si>
-    <t>Recall 0.9495221972465515</t>
-  </si>
-  <si>
-    <t>Test loss 0.2436593407467365</t>
-  </si>
-  <si>
-    <t>TruePositives 758556.3125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9235184788703918</t>
-  </si>
-  <si>
-    <t>F1_score 0.9291956433763036</t>
-  </si>
-  <si>
-    <t>FalseNegatives 51974.5546875</t>
-  </si>
-  <si>
-    <t>FalsePositives 51974.5546875</t>
-  </si>
-  <si>
-    <t>Precision 0.9349431395530701</t>
-  </si>
-  <si>
-    <t>Recall 0.9349431395530701</t>
-  </si>
-  <si>
-    <t>Test loss 0.24036198768613887</t>
-  </si>
-  <si>
-    <t>TruePositives 746909.1875</t>
-  </si>
-  <si>
-    <t>F1_score 0.9308107862027913</t>
-  </si>
-  <si>
-    <t>FalseNegatives 55232.89453125</t>
-  </si>
-  <si>
-    <t>FalsePositives 55232.89453125</t>
-  </si>
-  <si>
-    <t>Precision 0.9308612942695618</t>
-  </si>
-  <si>
-    <t>Recall 0.9308612942695618</t>
-  </si>
-  <si>
-    <t>Test loss 0.23392743664312154</t>
-  </si>
-  <si>
-    <t>TruePositives 743651.875</t>
-  </si>
-  <si>
-    <t>F1_score 0.9433918094048732</t>
-  </si>
-  <si>
-    <t>FalseNegatives 37960.24609375</t>
-  </si>
-  <si>
-    <t>FalsePositives 37960.24609375</t>
-  </si>
-  <si>
-    <t>Precision 0.9524860978126526</t>
-  </si>
-  <si>
-    <t>Recall 0.9524860978126526</t>
-  </si>
-  <si>
-    <t>Test loss 0.2593433264258268</t>
-  </si>
-  <si>
-    <t>TruePositives 760925.125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9479820132255554</t>
-  </si>
-  <si>
-    <t>F1_score 0.9494784156390647</t>
-  </si>
-  <si>
-    <t>FalseNegatives 39161.30078125</t>
-  </si>
-  <si>
-    <t>FalsePositives 39161.30078125</t>
-  </si>
-  <si>
-    <t>Precision 0.9509796500205994</t>
-  </si>
-  <si>
-    <t>Recall 0.9509796500205994</t>
-  </si>
-  <si>
-    <t>Test loss 0.22529574237464448</t>
-  </si>
-  <si>
-    <t>TruePositives 759722.3125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.914907693862915</t>
-  </si>
-  <si>
-    <t>F1_score 0.9335073609144824</t>
-  </si>
-  <si>
-    <t>FalseNegatives 37645.88671875</t>
-  </si>
-  <si>
-    <t>FalsePositives 37645.88671875</t>
-  </si>
-  <si>
-    <t>Precision 0.9528790712356567</t>
-  </si>
-  <si>
-    <t>Recall 0.9528790712356567</t>
-  </si>
-  <si>
-    <t>Test loss 0.3062181306816728</t>
-  </si>
-  <si>
-    <t>TruePositives 761238.6875</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9499691128730774</t>
-  </si>
-  <si>
-    <t>F1_score 0.9497875916748312</t>
-  </si>
-  <si>
-    <t>FalseNegatives 40258.99609375</t>
-  </si>
-  <si>
-    <t>FalsePositives 40258.99609375</t>
-  </si>
-  <si>
-    <t>Precision 0.9496062397956848</t>
-  </si>
-  <si>
-    <t>Recall 0.9496062397956848</t>
-  </si>
-  <si>
-    <t>Test loss 0.1675607211730162</t>
-  </si>
-  <si>
-    <t>TruePositives 758624.875</t>
-  </si>
-  <si>
-    <t>Accuracy 0.941667377948761</t>
-  </si>
-  <si>
-    <t>F1_score 0.9494437443467428</t>
-  </si>
-  <si>
-    <t>FalseNegatives 34072.23046875</t>
-  </si>
-  <si>
-    <t>FalsePositives 34072.23046875</t>
-  </si>
-  <si>
-    <t>Precision 0.9573497176170349</t>
-  </si>
-  <si>
-    <t>Recall 0.9573497176170349</t>
-  </si>
-  <si>
-    <t>Test loss 0.1970348203674825</t>
-  </si>
-  <si>
-    <t>TruePositives 764811.8125</t>
-  </si>
-  <si>
-    <t>Accuracy 0.951337993144989</t>
-  </si>
-  <si>
-    <t>F1_score 0.9564711128341571</t>
-  </si>
-  <si>
-    <t>FalseNegatives 30632.271484375</t>
-  </si>
-  <si>
-    <t>FalsePositives 30632.271484375</t>
-  </si>
-  <si>
-    <t>Precision 0.9616600275039673</t>
-  </si>
-  <si>
-    <t>Recall 0.9616600275039673</t>
-  </si>
-  <si>
-    <t>Test loss 0.17525145490165747</t>
-  </si>
-  <si>
-    <t>TruePositives 768251.6875</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9587565064430237</t>
-  </si>
-  <si>
-    <t>F1_score 0.948639347883203</t>
-  </si>
-  <si>
-    <t>FalseNegatives 48944.4140625</t>
-  </si>
-  <si>
-    <t>FalsePositives 48944.4140625</t>
-  </si>
-  <si>
-    <t>Precision 0.9387335777282715</t>
-  </si>
-  <si>
-    <t>Recall 0.9387335777282715</t>
-  </si>
-  <si>
-    <t>Test loss 0.13473316102148</t>
-  </si>
-  <si>
-    <t>TruePositives 749939.5625</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9581824541091919</t>
-  </si>
-  <si>
-    <t>F1_score 0.9546140755102647</t>
-  </si>
-  <si>
-    <t>FalseNegatives 39088.125</t>
-  </si>
-  <si>
-    <t>FalsePositives 39088.125</t>
-  </si>
-  <si>
-    <t>Precision 0.9510722756385803</t>
-  </si>
-  <si>
-    <t>Recall 0.9510722756385803</t>
-  </si>
-  <si>
-    <t>Test loss 0.1466465908831035</t>
-  </si>
-  <si>
-    <t>TruePositives 759795.6875</t>
-  </si>
-  <si>
-    <t>Accuracy 0.9580058455467224</t>
-  </si>
-  <si>
-    <t>F1_score 0.9607415032074694</t>
-  </si>
-  <si>
-    <t>FalseNegatives 29165.421875</t>
-  </si>
-  <si>
-    <t>FalsePositives 29165.421875</t>
-  </si>
-  <si>
-    <t>Precision 0.9634929299354553</t>
-  </si>
-  <si>
-    <t>Recall 0.9634929299354553</t>
-  </si>
-  <si>
-    <t>Test loss 0.14013742411584162</t>
-  </si>
-  <si>
-    <t>TruePositives 769718.75</t>
-  </si>
-  <si>
     <t>'adaptive_autoencoder316.h5': {'Accuracy:': 0.951337993144989,</t>
   </si>
   <si>
@@ -1535,6 +863,354 @@
   </si>
   <si>
     <t xml:space="preserve">                          'TruePositives:': 743651.875}</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9513</t>
+  </si>
+  <si>
+    <t>F1_score 0.9565</t>
+  </si>
+  <si>
+    <t>Recall 0.9617</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9417</t>
+  </si>
+  <si>
+    <t>F1_score 0.9494</t>
+  </si>
+  <si>
+    <t>Precision 0.9573</t>
+  </si>
+  <si>
+    <t>Recall 0.9573</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9499</t>
+  </si>
+  <si>
+    <t>Precision 0.9616</t>
+  </si>
+  <si>
+    <t>F1_score 0.9497</t>
+  </si>
+  <si>
+    <t>Precision 0.9496</t>
+  </si>
+  <si>
+    <t>Recall 0.9496</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9568</t>
+  </si>
+  <si>
+    <t>F1_score 0.9581</t>
+  </si>
+  <si>
+    <t>Precision 0.9593</t>
+  </si>
+  <si>
+    <t>Recall 0.9593</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9250</t>
+  </si>
+  <si>
+    <t>F1_score 0.9344</t>
+  </si>
+  <si>
+    <t>Precision 0.9440</t>
+  </si>
+  <si>
+    <t>Recall 0.9440</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9588</t>
+  </si>
+  <si>
+    <t>F1_score 0.9580</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9580</t>
+  </si>
+  <si>
+    <t>F1_score 0.9607</t>
+  </si>
+  <si>
+    <t>Precision 0.9634</t>
+  </si>
+  <si>
+    <t>Recall 0.9634</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9581</t>
+  </si>
+  <si>
+    <t>F1_score 0.9546</t>
+  </si>
+  <si>
+    <t>Precision 0.9510</t>
+  </si>
+  <si>
+    <t>Recall 0.9510</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9587</t>
+  </si>
+  <si>
+    <t>F1_score 0.9486</t>
+  </si>
+  <si>
+    <t>Precision 0.9387</t>
+  </si>
+  <si>
+    <t>Recall 0.9387</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9149</t>
+  </si>
+  <si>
+    <t>F1_score 0.9335</t>
+  </si>
+  <si>
+    <t>Precision 0.9528</t>
+  </si>
+  <si>
+    <t>Recall 0.9528</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9479</t>
+  </si>
+  <si>
+    <t>Precision 0.9509</t>
+  </si>
+  <si>
+    <t>Recall 0.9509</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9344</t>
+  </si>
+  <si>
+    <t>F1_score 0.9433</t>
+  </si>
+  <si>
+    <t>Precision 0.9524</t>
+  </si>
+  <si>
+    <t>Recall 0.9524</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9353</t>
+  </si>
+  <si>
+    <t>F1_score 0.9468</t>
+  </si>
+  <si>
+    <t>Precision 0.9585</t>
+  </si>
+  <si>
+    <t>Recall 0.9585</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9298</t>
+  </si>
+  <si>
+    <t>F1_score 0.9419</t>
+  </si>
+  <si>
+    <t>Precision 0.9543</t>
+  </si>
+  <si>
+    <t>Recall 0.9543</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9486</t>
+  </si>
+  <si>
+    <t>F1_score 0.9549</t>
+  </si>
+  <si>
+    <t>Precision 0.9612</t>
+  </si>
+  <si>
+    <t>Recall 0.9612</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9476</t>
+  </si>
+  <si>
+    <t>F1_score 0.9525</t>
+  </si>
+  <si>
+    <t>Precision 0.9575</t>
+  </si>
+  <si>
+    <t>Recall 0.9575</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9520</t>
+  </si>
+  <si>
+    <t>F1_score 0.9545</t>
+  </si>
+  <si>
+    <t>Precision 0.9569</t>
+  </si>
+  <si>
+    <t>Recall 0.9569</t>
+  </si>
+  <si>
+    <t>Precision 0.9495</t>
+  </si>
+  <si>
+    <t>Recall 0.9495</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9235</t>
+  </si>
+  <si>
+    <t>F1_score 0.9291</t>
+  </si>
+  <si>
+    <t>Precision 0.9349</t>
+  </si>
+  <si>
+    <t>Recall 0.9349</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9307</t>
+  </si>
+  <si>
+    <t>F1_score 0.9308</t>
+  </si>
+  <si>
+    <t>Precision 0.9308</t>
+  </si>
+  <si>
+    <t>Recall 0.9308</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9336</t>
+  </si>
+  <si>
+    <t>F1_score 0.9409</t>
+  </si>
+  <si>
+    <t>Precision 0.9483</t>
+  </si>
+  <si>
+    <t>Recall 0.9483</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9186</t>
+  </si>
+  <si>
+    <t>F1_score 0.9279</t>
+  </si>
+  <si>
+    <t>Precision 0.9375</t>
+  </si>
+  <si>
+    <t>Recall 0.9375</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9234</t>
+  </si>
+  <si>
+    <t>F1_score 0.9265</t>
+  </si>
+  <si>
+    <t>Precision 0.9296</t>
+  </si>
+  <si>
+    <t>Recall 0.9296</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9355</t>
+  </si>
+  <si>
+    <t>F1_score 0.9402</t>
+  </si>
+  <si>
+    <t>Precision 0.9449</t>
+  </si>
+  <si>
+    <t>Recall 0.9449</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9328</t>
+  </si>
+  <si>
+    <t>F1_score 0.9346</t>
+  </si>
+  <si>
+    <t>Precision 0.9363</t>
+  </si>
+  <si>
+    <t>Recall 0.9363</t>
+  </si>
+  <si>
+    <t>F1_score 0.9286</t>
+  </si>
+  <si>
+    <t>Precision 0.9265</t>
+  </si>
+  <si>
+    <t>Recall 0.9265</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9568, Precision 0.9593, Recall 0.9593</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9250, Precision 0.9440,Recall 0.9440</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9588, Precision 0.9573, Recall 0.9573</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9353, Precision 0.9585, Recall 0.9585</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9448, Precision 0.9566, Recall 0.9566</t>
+  </si>
+  <si>
+    <t>Accuracy 0.92983, Precision 0.9543, Recall 0.9543</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9336, Precision 0.9483, Recall 0.9483</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9186, Precision 0.9375, Recall 0.9375</t>
+  </si>
+  <si>
+    <t>Accuracy 0.9234, Precision 0.9296, Recall 0.9296</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.7546, Precision: 0.7546, Recall: 0.7546</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.5002, Precision: 0.5002, Recall: 0.5002</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.7792, Precision: 0.7792, Recall: 0.7792</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8204, Precision: 0.8204, Recall: 0.8204</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.7867, Precision: 0.7867, Recall: 0.7867</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8088, Precision: 0.8088, Recall: 0.8088</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.7078, Precision: 0.7078, Recall: 0.7078</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.7125, Precision: 0.7125, Recall: 0.7125</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.7386, Precision: 0.7386, Recall: 0.7386</t>
   </si>
 </sst>
 </file>
@@ -1585,15 +1261,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6565"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1639,30 +1333,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1703,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1730,9 +1400,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1762,48 +1429,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6565"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2080,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG183"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,90 +1787,90 @@
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -2200,15 +1878,15 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -2216,15 +1894,15 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -2232,15 +1910,15 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -2248,15 +1926,15 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -2264,15 +1942,15 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -2280,15 +1958,15 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -2296,20 +1974,20 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="12"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="11"/>
       <c r="U13" s="4" t="s">
-        <v>431</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -2318,20 +1996,20 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="12"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="11"/>
       <c r="U14" s="4" t="s">
-        <v>432</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -2341,13 +2019,13 @@
       <c r="I15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="U15" s="4" t="s">
-        <v>433</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.3">
@@ -2363,13 +2041,13 @@
       <c r="I16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="12"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="11"/>
       <c r="U16" s="4" t="s">
-        <v>434</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:33" ht="18" x14ac:dyDescent="0.3">
@@ -2382,18 +2060,18 @@
       <c r="I17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="12"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="11"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="4" t="s">
-        <v>435</v>
+        <v>211</v>
       </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
@@ -2420,18 +2098,18 @@
       <c r="I18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="12"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="11"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="4" t="s">
-        <v>436</v>
+        <v>212</v>
       </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
@@ -2458,18 +2136,18 @@
       <c r="I19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="12"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="11"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="4" t="s">
-        <v>437</v>
+        <v>213</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
@@ -2496,18 +2174,18 @@
       <c r="I20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="12"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="11"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="4" t="s">
-        <v>438</v>
+        <v>214</v>
       </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
@@ -2534,18 +2212,18 @@
       <c r="I21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="12"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="11"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="4" t="s">
-        <v>439</v>
+        <v>215</v>
       </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -2570,18 +2248,18 @@
       <c r="I22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="12"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="11"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="4" t="s">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
@@ -2608,18 +2286,18 @@
       <c r="I23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="12"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="11"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="4" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
@@ -2646,18 +2324,18 @@
       <c r="I24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="12"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="11"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="4" t="s">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
@@ -2684,18 +2362,18 @@
       <c r="I25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="12"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="11"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="4" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -2722,18 +2400,18 @@
       <c r="I26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="12"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="11"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="4" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -2758,18 +2436,18 @@
       <c r="I27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="12"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="11"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="4" t="s">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -2796,18 +2474,18 @@
       <c r="I28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="12"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="11"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="4" t="s">
-        <v>446</v>
+        <v>222</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -2834,18 +2512,18 @@
       <c r="I29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="12"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="11"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="4" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -2872,18 +2550,18 @@
       <c r="I30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="12"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="11"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="4" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
@@ -2910,18 +2588,18 @@
       <c r="I31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="12"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="11"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="4" t="s">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -2946,18 +2624,18 @@
       <c r="I32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="12"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="11"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="4" t="s">
-        <v>450</v>
+        <v>226</v>
       </c>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -2984,18 +2662,18 @@
       <c r="I33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="12"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="11"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="4" t="s">
-        <v>451</v>
+        <v>227</v>
       </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
@@ -3022,18 +2700,18 @@
       <c r="I34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="12"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="11"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="4" t="s">
-        <v>452</v>
+        <v>228</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -3060,18 +2738,18 @@
       <c r="I35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="12"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="11"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="4" t="s">
-        <v>453</v>
+        <v>229</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -3098,18 +2776,18 @@
       <c r="I36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="12"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="11"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="4" t="s">
-        <v>454</v>
+        <v>230</v>
       </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
@@ -3133,18 +2811,18 @@
       <c r="I37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="12"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="11"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="4" t="s">
-        <v>455</v>
+        <v>231</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
@@ -3171,18 +2849,18 @@
       <c r="I38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="12"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="11"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="4" t="s">
-        <v>456</v>
+        <v>232</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -3209,18 +2887,18 @@
       <c r="I39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="12"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="11"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="4" t="s">
-        <v>457</v>
+        <v>233</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
@@ -3247,18 +2925,18 @@
       <c r="I40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="12"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="11"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="4" t="s">
-        <v>458</v>
+        <v>234</v>
       </c>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
@@ -3285,18 +2963,18 @@
       <c r="I41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="12"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="11"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="4" t="s">
-        <v>459</v>
+        <v>235</v>
       </c>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
@@ -3320,18 +2998,18 @@
       <c r="I42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="12"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="11"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="4" t="s">
-        <v>460</v>
+        <v>236</v>
       </c>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
@@ -3358,18 +3036,18 @@
       <c r="I43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="12"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="11"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="4" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
@@ -3396,18 +3074,18 @@
       <c r="I44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="12"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="11"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="4" t="s">
-        <v>462</v>
+        <v>238</v>
       </c>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
@@ -3429,18 +3107,18 @@
       <c r="I45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="4" t="s">
-        <v>463</v>
+        <v>239</v>
       </c>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -3462,18 +3140,18 @@
       <c r="I46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="4" t="s">
-        <v>464</v>
+        <v>240</v>
       </c>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
@@ -3495,18 +3173,18 @@
       <c r="I47" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="4" t="s">
-        <v>465</v>
+        <v>241</v>
       </c>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
@@ -3525,18 +3203,18 @@
       <c r="I48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="4" t="s">
-        <v>466</v>
+        <v>242</v>
       </c>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
@@ -3558,18 +3236,18 @@
       <c r="I49" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="4" t="s">
-        <v>467</v>
+        <v>243</v>
       </c>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
@@ -3588,18 +3266,18 @@
       <c r="I50" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="4" t="s">
-        <v>468</v>
+        <v>244</v>
       </c>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
@@ -3621,18 +3299,18 @@
       <c r="I51" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
       <c r="U51" s="4" t="s">
-        <v>469</v>
+        <v>245</v>
       </c>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
@@ -3654,18 +3332,18 @@
       <c r="I52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="4" t="s">
-        <v>470</v>
+        <v>246</v>
       </c>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
@@ -3687,18 +3365,18 @@
       <c r="I53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="4" t="s">
-        <v>471</v>
+        <v>247</v>
       </c>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
@@ -3720,18 +3398,18 @@
       <c r="I54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
       <c r="U54" s="4" t="s">
-        <v>472</v>
+        <v>248</v>
       </c>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
@@ -3753,18 +3431,18 @@
       <c r="I55" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="4" t="s">
-        <v>473</v>
+        <v>249</v>
       </c>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
@@ -3786,18 +3464,18 @@
       <c r="I56" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="4" t="s">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
@@ -3816,18 +3494,18 @@
       <c r="I57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="4" t="s">
-        <v>475</v>
+        <v>251</v>
       </c>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
@@ -3849,18 +3527,18 @@
       <c r="I58" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="4" t="s">
-        <v>476</v>
+        <v>252</v>
       </c>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
@@ -3882,18 +3560,18 @@
       <c r="I59" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="4" t="s">
-        <v>477</v>
+        <v>253</v>
       </c>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
@@ -3915,18 +3593,18 @@
       <c r="I60" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="4" t="s">
-        <v>478</v>
+        <v>254</v>
       </c>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
@@ -3945,18 +3623,18 @@
       <c r="I61" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="4" t="s">
-        <v>479</v>
+        <v>255</v>
       </c>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
@@ -3978,18 +3656,18 @@
       <c r="I62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="4" t="s">
-        <v>480</v>
+        <v>256</v>
       </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
@@ -4011,18 +3689,18 @@
       <c r="I63" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="4" t="s">
-        <v>481</v>
+        <v>257</v>
       </c>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
@@ -4044,18 +3722,18 @@
       <c r="I64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="4" t="s">
-        <v>482</v>
+        <v>258</v>
       </c>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
@@ -4074,18 +3752,18 @@
       <c r="I65" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="4" t="s">
-        <v>483</v>
+        <v>259</v>
       </c>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
@@ -4107,18 +3785,18 @@
       <c r="I66" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="U66" s="4" t="s">
-        <v>484</v>
+        <v>260</v>
       </c>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
@@ -4140,18 +3818,18 @@
       <c r="I67" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="4" t="s">
-        <v>485</v>
+        <v>261</v>
       </c>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
@@ -4173,18 +3851,18 @@
       <c r="I68" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="4" t="s">
-        <v>486</v>
+        <v>262</v>
       </c>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
@@ -4203,208 +3881,208 @@
       <c r="I69" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
       <c r="U69" s="4" t="s">
-        <v>487</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I70" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
       <c r="U70" s="4" t="s">
-        <v>488</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I71" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
       <c r="U71" s="4" t="s">
-        <v>489</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I72" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
       <c r="U72" s="4" t="s">
-        <v>490</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I73" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
       <c r="U73" s="4" t="s">
-        <v>491</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I74" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
       <c r="U74" s="4" t="s">
-        <v>492</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I75" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
       <c r="U75" s="4" t="s">
-        <v>493</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I76" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
       <c r="U76" s="4" t="s">
-        <v>494</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I77" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
       <c r="U77" s="4" t="s">
-        <v>495</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I78" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
       <c r="U78" s="4" t="s">
-        <v>496</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I79" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
       <c r="U79" s="4" t="s">
-        <v>497</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="2:33" ht="18" x14ac:dyDescent="0.3">
       <c r="I80" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
       <c r="U80" s="4" t="s">
-        <v>498</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="9:21" ht="18" x14ac:dyDescent="0.3">
       <c r="I81" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
       <c r="U81" s="4" t="s">
-        <v>499</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="9:21" ht="18" x14ac:dyDescent="0.3">
       <c r="I82" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
       <c r="U82" s="4" t="s">
-        <v>500</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="9:21" ht="18" x14ac:dyDescent="0.3">
       <c r="I83" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
       <c r="U83" s="4" t="s">
-        <v>501</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="9:21" ht="18" x14ac:dyDescent="0.3">
       <c r="I84" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
       <c r="U84" s="4" t="s">
-        <v>502</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="9:21" ht="18" x14ac:dyDescent="0.3">
@@ -4769,162 +4447,162 @@
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C158" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>195</v>
+        <v>377</v>
       </c>
       <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="11"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C160" s="19" t="s">
-        <v>205</v>
+      <c r="C160" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>196</v>
+        <v>378</v>
       </c>
       <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="10"/>
-      <c r="L160" s="11"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C161" s="19" t="s">
-        <v>206</v>
+      <c r="C161" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>197</v>
+        <v>379</v>
       </c>
       <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="11"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>198</v>
+        <v>380</v>
       </c>
       <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="10"/>
-      <c r="L163" s="11"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C164" s="19" t="s">
-        <v>205</v>
+      <c r="C164" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>199</v>
+        <v>381</v>
       </c>
       <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="10"/>
-      <c r="L164" s="11"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C165" s="19" t="s">
-        <v>206</v>
+      <c r="C165" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="10"/>
-      <c r="L165" s="11"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L166" s="9"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
       <c r="L167" s="9"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C168" s="19" t="s">
-        <v>206</v>
+      <c r="C168" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>202</v>
+        <v>384</v>
       </c>
       <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C169" s="19" t="s">
-        <v>207</v>
+      <c r="C169" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>203</v>
+        <v>385</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
       <c r="L169" s="9"/>
       <c r="M169" s="9"/>
       <c r="N169" s="9"/>
@@ -4943,7 +4621,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B172" s="6" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
@@ -4958,248 +4636,237 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C173" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="28"/>
-      <c r="J173" s="22"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="21"/>
-      <c r="O173" s="21"/>
-      <c r="P173" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="22"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="21"/>
-      <c r="O174" s="21"/>
-      <c r="P174" s="21"/>
+        <v>197</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C175" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="22"/>
-      <c r="K175" s="21"/>
-      <c r="L175" s="21"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="21"/>
-      <c r="O175" s="21"/>
-      <c r="P175" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="19"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B176" s="13"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
-      <c r="K176" s="14"/>
-      <c r="L176" s="14"/>
-      <c r="M176" s="14"/>
-      <c r="N176" s="14"/>
-      <c r="O176" s="14"/>
-      <c r="P176" s="14"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="13"/>
+      <c r="M176" s="13"/>
+      <c r="N176" s="13"/>
+      <c r="O176" s="13"/>
+      <c r="P176" s="13"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="15"/>
-      <c r="M177" s="15"/>
-      <c r="N177" s="15"/>
-      <c r="O177" s="15"/>
-      <c r="P177" s="15"/>
+        <v>195</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14"/>
+      <c r="O177" s="14"/>
+      <c r="P177" s="14"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C178" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="20"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="15"/>
-      <c r="M178" s="15"/>
-      <c r="N178" s="15"/>
-      <c r="O178" s="15"/>
-      <c r="P178" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="14"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C179" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="20"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="15"/>
-      <c r="M179" s="15"/>
-      <c r="N179" s="15"/>
-      <c r="O179" s="15"/>
-      <c r="P179" s="15"/>
+        <v>197</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="14"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14"/>
+      <c r="O179" s="14"/>
+      <c r="P179" s="14"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B180" s="13"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
-      <c r="K180" s="14"/>
-      <c r="L180" s="14"/>
-      <c r="M180" s="14"/>
-      <c r="N180" s="14"/>
-      <c r="O180" s="14"/>
-      <c r="P180" s="14"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="13"/>
+      <c r="M180" s="13"/>
+      <c r="N180" s="13"/>
+      <c r="O180" s="13"/>
+      <c r="P180" s="13"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="15"/>
-      <c r="M181" s="15"/>
-      <c r="N181" s="15"/>
-      <c r="O181" s="15"/>
-      <c r="P181" s="15"/>
+        <v>195</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B182" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C182" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="15"/>
-      <c r="M182" s="15"/>
-      <c r="N182" s="15"/>
-      <c r="O182" s="15"/>
-      <c r="P182" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="C182" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D182" s="28"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B183" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="29"/>
-      <c r="H183" s="29"/>
-      <c r="I183" s="29"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="15"/>
-      <c r="M183" s="15"/>
-      <c r="N183" s="15"/>
-      <c r="O183" s="15"/>
-      <c r="P183" s="15"/>
+        <v>197</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14"/>
+      <c r="O183" s="14"/>
+      <c r="P183" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C177:I177"/>
-    <mergeCell ref="C175:I175"/>
-    <mergeCell ref="C174:I174"/>
-    <mergeCell ref="C173:I173"/>
-    <mergeCell ref="C181:I181"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C183:I183"/>
-    <mergeCell ref="C179:I179"/>
-    <mergeCell ref="C178:I178"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5210,1029 +4877,812 @@
   <dimension ref="A2:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="J19" sqref="A2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="32">
+      <c r="A3" s="21"/>
+      <c r="B3" s="23">
         <v>16</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="23">
         <v>32</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="23">
         <v>64</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="23">
         <v>16</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="23">
         <v>32</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="23">
         <v>64</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="23">
         <v>16</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="23">
         <v>32</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="23">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="A4" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="E5" s="34" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>336</v>
-      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="20"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="20"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
     </row>
     <row r="52" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
     </row>
     <row r="53" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
     </row>
     <row r="55" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A28:A35"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
